--- a/templates/IDM.xlsx
+++ b/templates/IDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/TRABALHO/CERTI/BIM CREA SC/Workshop_IDS/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{C37D5D48-CB7A-4B17-AEF4-3754E91BAF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBEC1872-80CC-41CA-9919-07017045B3EE}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{C37D5D48-CB7A-4B17-AEF4-3754E91BAF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3902CA3-0D27-4BCF-8F72-13926915E8E0}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4193517-5033-48D6-9A58-2691097C0962}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Data</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>VISÃO GERAL</t>
-  </si>
-  <si>
-    <t>WORKSHOP UCM - IDS</t>
   </si>
   <si>
     <t>ATORES</t>
@@ -123,6 +120,30 @@
   </si>
   <si>
     <t>Descrição da função</t>
+  </si>
+  <si>
+    <t>Projeto de construção XXXXXXXX</t>
+  </si>
+  <si>
+    <t>Estabelecer as informações necessárias para o levantamento de quantidades para orçamentação de um projeto de construção.</t>
+  </si>
+  <si>
+    <t>UC_A_001</t>
+  </si>
+  <si>
+    <t>IDENTIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>UC_01</t>
+  </si>
+  <si>
+    <t>UC_02</t>
+  </si>
+  <si>
+    <t>Levantamento de quantidades para orçamentação</t>
+  </si>
+  <si>
+    <t>Dimensionamento estrutural</t>
   </si>
 </sst>
 </file>
@@ -728,7 +749,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,15 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1043,6 +1055,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1364,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D07D7-0471-4F66-BE1D-EF477DCB59E3}">
-  <dimension ref="B1:E41"/>
+  <dimension ref="B1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -1397,193 +1454,211 @@
         <v>3</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="64"/>
     </row>
-    <row r="4" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+    </row>
+    <row r="5" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C5" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+    </row>
     <row r="7" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+    </row>
+    <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
+    </row>
+    <row r="10" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="116"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+    </row>
+    <row r="11" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="116"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
+    </row>
+    <row r="12" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="23" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-    </row>
     <row r="16" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+    </row>
+    <row r="23" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+    <row r="24" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="35"/>
@@ -1591,71 +1666,120 @@
       <c r="D33" s="42"/>
       <c r="E33" s="43"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="35"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="35"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="35"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="35"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="35"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="36"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-    </row>
-    <row r="37" spans="2:5" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+    </row>
+    <row r="44" spans="2:5" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B25:E25"/>
+  <mergeCells count="30">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1683,170 +1807,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="B1" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+    </row>
+    <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="81"/>
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-    </row>
-    <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="85"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="B8" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
     </row>
     <row r="10" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="11" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
     </row>
     <row r="12" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
     </row>
     <row r="13" spans="2:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
+      <c r="B14" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="D15" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="40" t="s">
         <v>9</v>
       </c>
@@ -1854,191 +1978,191 @@
     <row r="16" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="39"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
+      <c r="B24" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="39"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="39"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="39"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="6"/>
     </row>
   </sheetData>
@@ -2086,7 +2210,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BA14059-8C94-4E22-BED4-648503EB5BC5}">
           <x14:formula1>
-            <xm:f>'FOLHA DE ROSTO'!$B$17:$B$23</xm:f>
+            <xm:f>'FOLHA DE ROSTO'!$B$24:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C23</xm:sqref>
         </x14:dataValidation>
@@ -2108,35 +2232,35 @@
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="108"/>
+      <c r="B2" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="105"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>

--- a/templates/IDM.xlsx
+++ b/templates/IDM.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/TRABALHO/CERTI/BIM CREA SC/Workshop_IDS/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/CURSOS/OPEN BIM ACADEMY/WORKSHOPS/BIM CREA SC/Workshop_IDS/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{C37D5D48-CB7A-4B17-AEF4-3754E91BAF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3902CA3-0D27-4BCF-8F72-13926915E8E0}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{C37D5D48-CB7A-4B17-AEF4-3754E91BAF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E4B2BB-F172-4B68-A854-F87704F494DB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4193517-5033-48D6-9A58-2691097C0962}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A4193517-5033-48D6-9A58-2691097C0962}"/>
   </bookViews>
   <sheets>
     <sheet name="FOLHA DE ROSTO" sheetId="1" r:id="rId1"/>
-    <sheet name="REQUISITOS" sheetId="4" r:id="rId2"/>
+    <sheet name="PROCESSOS" sheetId="4" r:id="rId2"/>
     <sheet name="MAPA" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">REQUISITOS!$B$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PROCESSOS!$B$1:$I$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Data</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Dimensionamento estrutural</t>
+  </si>
+  <si>
+    <t>TROCAS DE INFORMAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -861,6 +864,114 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,86 +990,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -969,15 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1008,6 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,12 +1086,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1055,51 +1103,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1118,10 +1121,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1423,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D07D7-0471-4F66-BE1D-EF477DCB59E3}">
   <dimension ref="B1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
@@ -1436,113 +1435,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="2:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="2:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
     </row>
     <row r="8" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
     </row>
     <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="116"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="116"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
@@ -1558,42 +1557,42 @@
     </row>
     <row r="16" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
@@ -1653,84 +1652,84 @@
     </row>
     <row r="31" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="35"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="35"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="35"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="35"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="35"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="35"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="35"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="35"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="36"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
@@ -1750,17 +1749,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="C3:E3"/>
@@ -1771,15 +1773,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1787,11 +1786,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EF2172-3EF5-485B-9CA4-CF9BE8F5804A}">
-  <dimension ref="B1:I33"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,155 +1806,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="81"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
     </row>
     <row r="6" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
     </row>
     <row r="7" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
     </row>
     <row r="8" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
     </row>
     <row r="10" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
     </row>
     <row r="11" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
     </row>
     <row r="12" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" spans="2:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
@@ -1964,13 +1963,13 @@
       <c r="C15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
       <c r="I15" s="40" t="s">
         <v>9</v>
       </c>
@@ -1978,94 +1977,94 @@
     <row r="16" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="39"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
     </row>
     <row r="25" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
@@ -2074,13 +2073,13 @@
       <c r="C25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="40" t="s">
         <v>23</v>
       </c>
@@ -2088,85 +2087,205 @@
     <row r="26" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="39"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="39"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="94"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="39"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="6"/>
     </row>
+    <row r="34" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="91"/>
+    </row>
+    <row r="35" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="39"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="39"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="39"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="39"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="39"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="39"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="39"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="44">
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="D10:I10"/>
@@ -2225,42 +2344,42 @@
   <dimension ref="B1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="105"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="120"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
